--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBFF6F-40C9-4046-9EDE-8977A6B01E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C867B0-6A06-416B-B654-13B758E3FA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>Algorithms</t>
   </si>
@@ -283,12 +283,15 @@
   <si>
     <t>Avg. execution time for 33 sensors (s)</t>
   </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +373,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -427,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -941,7 +951,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -959,10 +980,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -972,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1079,26 +1102,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="73" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,15 +1464,16 @@
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.7265625" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="0.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1444,18 +1484,19 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1466,18 +1507,19 @@
       <c r="E3" s="2">
         <v>70</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2"/>
+      <c r="G3" s="8">
         <v>131</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="12">
+      <c r="H3" s="57"/>
+      <c r="I3" s="12">
         <v>48</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1488,18 +1530,19 @@
       <c r="E4" s="10">
         <v>76</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10"/>
+      <c r="G4" s="1">
         <v>132</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
         <v>47</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
@@ -1510,18 +1553,19 @@
       <c r="E5" s="1">
         <v>66</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1"/>
+      <c r="G5" s="10">
         <v>139</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13">
+      <c r="H5" s="14"/>
+      <c r="I5" s="13">
         <v>12</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
@@ -1532,18 +1576,19 @@
       <c r="E6" s="1">
         <v>70</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1"/>
+      <c r="G6" s="7">
         <v>131</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13">
+      <c r="H6" s="15"/>
+      <c r="I6" s="13">
         <v>45</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
@@ -1554,18 +1599,19 @@
       <c r="E7" s="1">
         <v>65</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>137</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <v>54</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1576,18 +1622,19 @@
       <c r="E8" s="7">
         <v>63</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7"/>
+      <c r="G8" s="1">
         <v>132</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14">
         <v>54</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
@@ -1598,18 +1645,19 @@
       <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="1"/>
+      <c r="G9" s="10">
         <v>139</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15">
         <v>8</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
@@ -1620,18 +1668,19 @@
       <c r="E10" s="22">
         <v>63</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
         <v>131</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="23">
+      <c r="H10" s="58"/>
+      <c r="I10" s="23">
         <v>48</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
         <v>3</v>
       </c>
@@ -1642,18 +1691,19 @@
       <c r="E11" s="27">
         <v>150</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28">
         <v>150</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
         <v>17</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="J11" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -1664,27 +1714,29 @@
       <c r="E12" s="33">
         <v>62</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33"/>
+      <c r="G12" s="34">
         <v>128</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-    </row>
-    <row r="20" spans="2:10" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
         <v>0</v>
       </c>
@@ -1697,18 +1749,19 @@
       <c r="E20" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="I20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B21" s="37" t="s">
         <v>3</v>
       </c>
@@ -1721,17 +1774,18 @@
       <c r="E21" s="63">
         <v>150</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="61">
-        <f>J21/731</f>
+      <c r="F21" s="87"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="61">
+        <f>K21/731</f>
         <v>0.17236662106703146</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="J21" s="75">
+      <c r="I21" s="65"/>
+      <c r="K21" s="75">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B22" s="38" t="s">
         <v>2</v>
       </c>
@@ -1744,17 +1798,18 @@
       <c r="E22" s="47">
         <v>150</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="61">
-        <f t="shared" ref="G22:G33" si="0">J22/731</f>
+      <c r="F22" s="88"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="61">
+        <f t="shared" ref="H22:H33" si="0">K22/731</f>
         <v>0.44322845417236661</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="J22" s="73">
+      <c r="I22" s="55"/>
+      <c r="K22" s="73">
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B23" s="39" t="s">
         <v>9</v>
       </c>
@@ -1767,27 +1822,29 @@
       <c r="E23" s="47">
         <v>139</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="61">
+      <c r="F23" s="88"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="61">
         <f t="shared" si="0"/>
         <v>0.24076607387140903</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="J23" s="73">
+      <c r="I23" s="55"/>
+      <c r="K23" s="73">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="40"/>
       <c r="C24" s="48"/>
       <c r="D24" s="44"/>
       <c r="E24" s="49"/>
       <c r="F24" s="59"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="56"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G24" s="59"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="56"/>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B25" s="38" t="s">
         <v>1</v>
       </c>
@@ -1800,17 +1857,18 @@
       <c r="E25" s="47">
         <v>150</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="61">
+      <c r="F25" s="88"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="61">
         <f t="shared" si="0"/>
         <v>2.188782489740082E-2</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="J25" s="73">
+      <c r="I25" s="55"/>
+      <c r="K25" s="73">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B26" s="39" t="s">
         <v>6</v>
       </c>
@@ -1823,17 +1881,18 @@
       <c r="E26" s="47">
         <v>138</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="61">
+      <c r="F26" s="88"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="61">
         <f t="shared" si="0"/>
         <v>5.1983584131326949E-2</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="J26" s="73">
+      <c r="I26" s="55"/>
+      <c r="K26" s="73">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B27" s="39" t="s">
         <v>7</v>
       </c>
@@ -1846,17 +1905,18 @@
       <c r="E27" s="47">
         <v>129</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61">
+      <c r="F27" s="88"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="61">
         <f t="shared" si="0"/>
         <v>0.29822161422708621</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="J27" s="73">
+      <c r="I27" s="55"/>
+      <c r="K27" s="73">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
         <v>4</v>
       </c>
@@ -1869,27 +1929,29 @@
       <c r="E28" s="50">
         <v>125</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="61">
+      <c r="F28" s="89"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="61">
         <f t="shared" si="0"/>
         <v>0.29822161422708621</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="J28" s="73">
+      <c r="I28" s="47"/>
+      <c r="K28" s="73">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
       <c r="D29" s="44"/>
       <c r="E29" s="49"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="49"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G29" s="59"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B30" s="38" t="s">
         <v>22</v>
       </c>
@@ -1902,17 +1964,18 @@
       <c r="E30" s="47">
         <v>145</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="61">
+      <c r="F30" s="88"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="61">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="J30" s="73">
+      <c r="I30" s="47"/>
+      <c r="K30" s="73">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B31" s="39" t="s">
         <v>23</v>
       </c>
@@ -1925,17 +1988,18 @@
       <c r="E31" s="47">
         <v>146</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61">
+      <c r="F31" s="88"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="61">
         <f t="shared" si="0"/>
         <v>8.6183310533515731E-2</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="J31" s="73">
+      <c r="I31" s="47"/>
+      <c r="K31" s="73">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B32" s="39" t="s">
         <v>24</v>
       </c>
@@ -1948,17 +2012,18 @@
       <c r="E32" s="47">
         <v>135</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="61">
+      <c r="F32" s="88"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="61">
         <f t="shared" si="0"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="J32" s="73">
+      <c r="I32" s="47"/>
+      <c r="K32" s="73">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="42" t="s">
         <v>21</v>
       </c>
@@ -1971,104 +2036,106 @@
       <c r="E33" s="54">
         <v>135</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61">
+      <c r="F33" s="90"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61">
         <f t="shared" si="0"/>
         <v>0.37346101231190149</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="J33" s="52">
+      <c r="I33" s="54"/>
+      <c r="K33" s="52">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H35">
         <f>3.192473-3.184319</f>
         <v>8.1540000000002166E-3</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G36">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H36">
         <f>55.946233-55.942617</f>
         <v>3.6160000000009518E-3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>32</v>
       </c>
-      <c r="G37">
-        <f>G35*G36</f>
+      <c r="H37">
+        <f>H35*H36</f>
         <v>2.9484864000008543E-5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="87" x14ac:dyDescent="0.35">
       <c r="B38" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H39" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H40">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I40">
         <f xml:space="preserve"> 264/(111*90)</f>
         <v>2.6426426426426425E-2</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G42">
-        <f>H40/G37</f>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <f>I40/H37</f>
         <v>896.27092824368356</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G43">
-        <f>33*G42</f>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <f>33*H42</f>
         <v>29576.940632041558</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:11" ht="21" x14ac:dyDescent="0.5">
       <c r="B47" s="76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="2:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="87"/>
-    </row>
-    <row r="50" spans="2:10" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="86"/>
+    </row>
+    <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
         <v>0</v>
       </c>
@@ -2081,18 +2148,19 @@
       <c r="E50" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71" t="s">
+      <c r="F50" s="69"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="68" t="s">
+      <c r="I50" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="K50" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B51" s="37" t="s">
         <v>3</v>
       </c>
@@ -2105,17 +2173,18 @@
       <c r="E51" s="63">
         <v>150</v>
       </c>
-      <c r="F51" s="64"/>
-      <c r="G51" s="61">
-        <f>J51/731</f>
+      <c r="F51" s="87"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="61">
+        <f>K51/731</f>
         <v>0.15868673050615595</v>
       </c>
-      <c r="H51" s="65"/>
-      <c r="J51" s="61">
+      <c r="I51" s="65"/>
+      <c r="K51" s="61">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B52" s="38" t="s">
         <v>2</v>
       </c>
@@ -2128,17 +2197,18 @@
       <c r="E52" s="47">
         <v>135</v>
       </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="61">
-        <f t="shared" ref="G52:G53" si="1">J52/731</f>
+      <c r="F52" s="88"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="61">
+        <f t="shared" ref="H52:H53" si="1">K52/731</f>
         <v>0.43638850889192887</v>
       </c>
-      <c r="H52" s="55"/>
-      <c r="J52" s="46">
+      <c r="I52" s="55"/>
+      <c r="K52" s="46">
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B53" s="39" t="s">
         <v>9</v>
       </c>
@@ -2151,27 +2221,29 @@
       <c r="E53" s="47">
         <v>139</v>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61">
+      <c r="F53" s="88"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="61">
         <f t="shared" si="1"/>
         <v>0.54582763337893292</v>
       </c>
-      <c r="H53" s="55"/>
-      <c r="J53" s="46">
+      <c r="I53" s="55"/>
+      <c r="K53" s="46">
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="3.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="3.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="40"/>
       <c r="C54" s="48"/>
       <c r="D54" s="44"/>
       <c r="E54" s="49"/>
       <c r="F54" s="59"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="56"/>
-      <c r="J54" s="48"/>
-    </row>
-    <row r="55" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G54" s="59"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="56"/>
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B55" s="38" t="s">
         <v>1</v>
       </c>
@@ -2184,17 +2256,18 @@
       <c r="E55" s="47">
         <v>150</v>
       </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="79">
-        <f t="shared" ref="G55:G58" si="2">J55/731</f>
+      <c r="F55" s="88"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="79">
+        <f t="shared" ref="H55:H58" si="2">K55/731</f>
         <v>2.188782489740082E-2</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="J55" s="46">
+      <c r="I55" s="55"/>
+      <c r="K55" s="46">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B56" s="39" t="s">
         <v>6</v>
       </c>
@@ -2207,17 +2280,18 @@
       <c r="E56" s="47">
         <v>142</v>
       </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="61">
+      <c r="F56" s="88"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="61">
         <f t="shared" si="2"/>
         <v>4.7879616963064295E-2</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="J56" s="46">
+      <c r="I56" s="55"/>
+      <c r="K56" s="46">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B57" s="39" t="s">
         <v>7</v>
       </c>
@@ -2230,17 +2304,18 @@
       <c r="E57" s="47">
         <v>131</v>
       </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="61">
+      <c r="F57" s="88"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="61">
         <f t="shared" si="2"/>
         <v>0.28317373461012313</v>
       </c>
-      <c r="H57" s="55"/>
-      <c r="J57" s="46">
+      <c r="I57" s="55"/>
+      <c r="K57" s="46">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B58" s="39" t="s">
         <v>4</v>
       </c>
@@ -2253,27 +2328,29 @@
       <c r="E58" s="50">
         <v>124</v>
       </c>
-      <c r="F58" s="59"/>
-      <c r="G58" s="61">
+      <c r="F58" s="89"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="61">
         <f t="shared" si="2"/>
         <v>0.30095759233926128</v>
       </c>
-      <c r="H58" s="47"/>
-      <c r="J58" s="46">
+      <c r="I58" s="47"/>
+      <c r="K58" s="46">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="3.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="3.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="41"/>
       <c r="C59" s="48"/>
       <c r="D59" s="44"/>
       <c r="E59" s="49"/>
       <c r="F59" s="59"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="49"/>
-      <c r="J59" s="48"/>
-    </row>
-    <row r="60" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G59" s="59"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="49"/>
+      <c r="K59" s="48"/>
+    </row>
+    <row r="60" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B60" s="38" t="s">
         <v>22</v>
       </c>
@@ -2286,17 +2363,18 @@
       <c r="E60" s="47">
         <v>142</v>
       </c>
-      <c r="F60" s="59"/>
-      <c r="G60" s="61">
-        <f t="shared" ref="G60:G63" si="3">J60/731</f>
+      <c r="F60" s="88"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="61">
+        <f t="shared" ref="H60:H63" si="3">K60/731</f>
         <v>6.0191518467852256E-2</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="J60" s="46">
+      <c r="I60" s="47"/>
+      <c r="K60" s="46">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B61" s="39" t="s">
         <v>23</v>
       </c>
@@ -2309,17 +2387,18 @@
       <c r="E61" s="47">
         <v>140</v>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="61">
+      <c r="F61" s="88"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="61">
         <f t="shared" si="3"/>
         <v>8.2079343365253077E-2</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="J61" s="46">
+      <c r="I61" s="47"/>
+      <c r="K61" s="46">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B62" s="39" t="s">
         <v>24</v>
       </c>
@@ -2332,17 +2411,18 @@
       <c r="E62" s="47">
         <v>135</v>
       </c>
-      <c r="F62" s="59"/>
-      <c r="G62" s="61">
+      <c r="F62" s="88"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="61">
         <f t="shared" si="3"/>
         <v>0.33105335157318744</v>
       </c>
-      <c r="H62" s="47"/>
-      <c r="J62" s="46">
+      <c r="I62" s="47"/>
+      <c r="K62" s="46">
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="42" t="s">
         <v>21</v>
       </c>
@@ -2355,55 +2435,59 @@
       <c r="E63" s="54">
         <v>137</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61">
+      <c r="F63" s="90"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="61">
         <f t="shared" si="3"/>
         <v>0.34610123119015046</v>
       </c>
-      <c r="H63" s="54"/>
-      <c r="J63" s="52">
+      <c r="I63" s="54"/>
+      <c r="K63" s="52">
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A73" s="84"/>
-      <c r="B73" s="85" t="s">
+    <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A73" s="80"/>
+      <c r="B73" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-    </row>
-    <row r="75" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="84"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+    </row>
+    <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="80"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="84"/>
-    </row>
-    <row r="76" spans="1:10" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="80"/>
+    </row>
+    <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="80"/>
       <c r="B76" s="67" t="s">
         <v>0</v>
       </c>
@@ -2416,20 +2500,23 @@
       <c r="E76" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71" t="s">
+      <c r="F76" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="70"/>
+      <c r="H76" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="H76" s="68" t="s">
+      <c r="I76" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="84"/>
-      <c r="J76" s="5" t="s">
+      <c r="J76" s="80"/>
+      <c r="K76" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A77" s="84"/>
+    <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A77" s="80"/>
       <c r="B77" s="37" t="s">
         <v>3</v>
       </c>
@@ -2442,21 +2529,24 @@
       <c r="E77" s="63">
         <v>150</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="80">
-        <f>J77/731</f>
+      <c r="F77" s="92">
+        <v>6.04</v>
+      </c>
+      <c r="G77" s="64"/>
+      <c r="H77" s="93">
+        <f>K77/731</f>
         <v>0.16552667578659372</v>
       </c>
-      <c r="H77" s="81" t="s">
+      <c r="I77" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="84"/>
-      <c r="J77" s="61">
+      <c r="J77" s="80"/>
+      <c r="K77" s="61">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A78" s="84"/>
+    <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A78" s="80"/>
       <c r="B78" s="38" t="s">
         <v>2</v>
       </c>
@@ -2469,21 +2559,24 @@
       <c r="E78" s="47">
         <v>137</v>
       </c>
-      <c r="F78" s="59"/>
-      <c r="G78" s="61">
-        <f t="shared" ref="G78:G79" si="4">J78/731</f>
+      <c r="F78" s="88">
+        <v>10.27</v>
+      </c>
+      <c r="G78" s="59"/>
+      <c r="H78" s="94">
+        <f t="shared" ref="H78:H79" si="4">K78/731</f>
         <v>0.45554035567715456</v>
       </c>
-      <c r="H78" s="55" t="s">
+      <c r="I78" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="84"/>
-      <c r="J78" s="46">
+      <c r="J78" s="80"/>
+      <c r="K78" s="46">
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A79" s="84"/>
+    <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A79" s="80"/>
       <c r="B79" s="39" t="s">
         <v>9</v>
       </c>
@@ -2496,33 +2589,37 @@
       <c r="E79" s="47">
         <v>123</v>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="61">
+      <c r="F79" s="88">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G79" s="59"/>
+      <c r="H79" s="94">
         <f t="shared" si="4"/>
         <v>0.55813953488372092</v>
       </c>
-      <c r="H79" s="55" t="s">
+      <c r="I79" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="84"/>
-      <c r="J79" s="46">
+      <c r="J79" s="80"/>
+      <c r="K79" s="46">
         <v>408</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="84"/>
+    <row r="80" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="80"/>
       <c r="B80" s="40"/>
       <c r="C80" s="48"/>
       <c r="D80" s="44"/>
       <c r="E80" s="49"/>
       <c r="F80" s="59"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="48"/>
-    </row>
-    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="84"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="48"/>
+    </row>
+    <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A81" s="80"/>
       <c r="B81" s="38" t="s">
         <v>1</v>
       </c>
@@ -2535,21 +2632,24 @@
       <c r="E81" s="47">
         <v>150</v>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="91">
-        <f t="shared" ref="G81:G84" si="5">J81/731</f>
+      <c r="F81" s="88">
+        <v>11.41</v>
+      </c>
+      <c r="G81" s="59"/>
+      <c r="H81" s="96">
+        <f t="shared" ref="H81:H84" si="5">K81/731</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="H81" s="55" t="s">
+      <c r="I81" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="84"/>
-      <c r="J81" s="46">
+      <c r="J81" s="80"/>
+      <c r="K81" s="46">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A82" s="84"/>
+    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A82" s="80"/>
       <c r="B82" s="39" t="s">
         <v>6</v>
       </c>
@@ -2562,48 +2662,54 @@
       <c r="E82" s="47">
         <v>142</v>
       </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="61">
+      <c r="F82" s="88">
+        <v>11.55</v>
+      </c>
+      <c r="G82" s="59"/>
+      <c r="H82" s="94">
         <f t="shared" si="5"/>
         <v>5.0615595075239397E-2</v>
       </c>
-      <c r="H82" s="55" t="s">
+      <c r="I82" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I82" s="84"/>
-      <c r="J82" s="46">
+      <c r="J82" s="80"/>
+      <c r="K82" s="46">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A83" s="84"/>
+    <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A83" s="80"/>
       <c r="B83" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="46">
         <v>96.08</v>
       </c>
-      <c r="D83" s="89">
+      <c r="D83" s="83">
         <v>49</v>
       </c>
-      <c r="E83" s="90">
+      <c r="E83" s="84">
         <v>118</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="61">
+      <c r="F83" s="88">
+        <v>8.36</v>
+      </c>
+      <c r="G83" s="59"/>
+      <c r="H83" s="94">
         <f t="shared" si="5"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="H83" s="55" t="s">
+      <c r="I83" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="84"/>
-      <c r="J83" s="46">
+      <c r="J83" s="80"/>
+      <c r="K83" s="46">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A84" s="84"/>
+    <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A84" s="80"/>
       <c r="B84" s="39" t="s">
         <v>4</v>
       </c>
@@ -2613,36 +2719,40 @@
       <c r="D84" s="43">
         <v>53</v>
       </c>
-      <c r="E84" s="90">
+      <c r="E84" s="84">
         <v>118</v>
       </c>
-      <c r="F84" s="59"/>
-      <c r="G84" s="61">
+      <c r="F84" s="88">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G84" s="59"/>
+      <c r="H84" s="94">
         <f t="shared" si="5"/>
         <v>0.32010943912448703</v>
       </c>
-      <c r="H84" s="55" t="s">
+      <c r="I84" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I84" s="84"/>
-      <c r="J84" s="46">
+      <c r="J84" s="80"/>
+      <c r="K84" s="46">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="84"/>
+    <row r="85" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="80"/>
       <c r="B85" s="41"/>
       <c r="C85" s="48"/>
       <c r="D85" s="44"/>
       <c r="E85" s="49"/>
       <c r="F85" s="59"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="48"/>
-    </row>
-    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A86" s="84"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="95"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="48"/>
+    </row>
+    <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A86" s="80"/>
       <c r="B86" s="38" t="s">
         <v>22</v>
       </c>
@@ -2655,21 +2765,24 @@
       <c r="E86" s="47">
         <v>147</v>
       </c>
-      <c r="F86" s="59"/>
-      <c r="G86" s="61">
-        <f t="shared" ref="G86:G89" si="6">J86/731</f>
+      <c r="F86" s="88">
+        <v>13.14</v>
+      </c>
+      <c r="G86" s="59"/>
+      <c r="H86" s="94">
+        <f t="shared" ref="H86:H89" si="6">K86/731</f>
         <v>6.2927496580027359E-2</v>
       </c>
-      <c r="H86" s="55" t="s">
+      <c r="I86" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I86" s="84"/>
-      <c r="J86" s="46">
+      <c r="J86" s="80"/>
+      <c r="K86" s="46">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="84"/>
+    <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A87" s="80"/>
       <c r="B87" s="39" t="s">
         <v>23</v>
       </c>
@@ -2682,21 +2795,24 @@
       <c r="E87" s="47">
         <v>145</v>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="61">
+      <c r="F87" s="88">
+        <v>13.2</v>
+      </c>
+      <c r="G87" s="59"/>
+      <c r="H87" s="94">
         <f t="shared" si="6"/>
         <v>8.3447332421340628E-2</v>
       </c>
-      <c r="H87" s="55" t="s">
+      <c r="I87" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="I87" s="84"/>
-      <c r="J87" s="46">
+      <c r="J87" s="80"/>
+      <c r="K87" s="46">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.4">
-      <c r="A88" s="84"/>
+    <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A88" s="80"/>
       <c r="B88" s="39" t="s">
         <v>24</v>
       </c>
@@ -2709,25 +2825,28 @@
       <c r="E88" s="47">
         <v>119</v>
       </c>
-      <c r="F88" s="59"/>
-      <c r="G88" s="61">
+      <c r="F88" s="88">
+        <v>7.63</v>
+      </c>
+      <c r="G88" s="59"/>
+      <c r="H88" s="94">
         <f t="shared" si="6"/>
         <v>0.32831737346101231</v>
       </c>
-      <c r="H88" s="55" t="s">
+      <c r="I88" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="46">
+      <c r="J88" s="80"/>
+      <c r="K88" s="46">
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="84"/>
+    <row r="89" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="80"/>
       <c r="B89" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="88">
+      <c r="C89" s="82">
         <v>95.65</v>
       </c>
       <c r="D89" s="53">
@@ -2736,46 +2855,51 @@
       <c r="E89" s="54">
         <v>119</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="82">
+      <c r="F89" s="90">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G89" s="60"/>
+      <c r="H89" s="97">
         <f t="shared" si="6"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="H89" s="83" t="s">
+      <c r="I89" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="52">
+      <c r="J89" s="80"/>
+      <c r="K89" s="52">
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="84"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="84"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="80"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C75:I75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C867B0-6A06-416B-B654-13B758E3FA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC9BE-6398-4DDB-BCE5-55A1E1F04D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>Algorithms</t>
   </si>
@@ -291,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +373,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -995,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1104,15 +1097,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1120,7 +1104,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1138,6 +1121,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="73" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1726,15 +1725,15 @@
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
@@ -1774,7 +1773,7 @@
       <c r="E21" s="63">
         <v>150</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="64"/>
       <c r="H21" s="61">
         <f>K21/731</f>
@@ -1798,7 +1797,7 @@
       <c r="E22" s="47">
         <v>150</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="59"/>
       <c r="H22" s="61">
         <f t="shared" ref="H22:H33" si="0">K22/731</f>
@@ -1822,7 +1821,7 @@
       <c r="E23" s="47">
         <v>139</v>
       </c>
-      <c r="F23" s="88"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="59"/>
       <c r="H23" s="61">
         <f t="shared" si="0"/>
@@ -1857,7 +1856,7 @@
       <c r="E25" s="47">
         <v>150</v>
       </c>
-      <c r="F25" s="88"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="59"/>
       <c r="H25" s="61">
         <f t="shared" si="0"/>
@@ -1881,7 +1880,7 @@
       <c r="E26" s="47">
         <v>138</v>
       </c>
-      <c r="F26" s="88"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="59"/>
       <c r="H26" s="61">
         <f t="shared" si="0"/>
@@ -1905,7 +1904,7 @@
       <c r="E27" s="47">
         <v>129</v>
       </c>
-      <c r="F27" s="88"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="59"/>
       <c r="H27" s="61">
         <f t="shared" si="0"/>
@@ -1929,7 +1928,7 @@
       <c r="E28" s="50">
         <v>125</v>
       </c>
-      <c r="F28" s="89"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="59"/>
       <c r="H28" s="61">
         <f t="shared" si="0"/>
@@ -1964,7 +1963,7 @@
       <c r="E30" s="47">
         <v>145</v>
       </c>
-      <c r="F30" s="88"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="59"/>
       <c r="H30" s="61">
         <f t="shared" si="0"/>
@@ -1988,7 +1987,7 @@
       <c r="E31" s="47">
         <v>146</v>
       </c>
-      <c r="F31" s="88"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="59"/>
       <c r="H31" s="61">
         <f t="shared" si="0"/>
@@ -2012,7 +2011,7 @@
       <c r="E32" s="47">
         <v>135</v>
       </c>
-      <c r="F32" s="88"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="59"/>
       <c r="H32" s="61">
         <f t="shared" si="0"/>
@@ -2036,7 +2035,7 @@
       <c r="E33" s="54">
         <v>135</v>
       </c>
-      <c r="F33" s="90"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="60"/>
       <c r="H33" s="61">
         <f t="shared" si="0"/>
@@ -2125,15 +2124,15 @@
     <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="86"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
@@ -2173,7 +2172,7 @@
       <c r="E51" s="63">
         <v>150</v>
       </c>
-      <c r="F51" s="87"/>
+      <c r="F51" s="82"/>
       <c r="G51" s="64"/>
       <c r="H51" s="61">
         <f>K51/731</f>
@@ -2197,7 +2196,7 @@
       <c r="E52" s="47">
         <v>135</v>
       </c>
-      <c r="F52" s="88"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="59"/>
       <c r="H52" s="61">
         <f t="shared" ref="H52:H53" si="1">K52/731</f>
@@ -2221,7 +2220,7 @@
       <c r="E53" s="47">
         <v>139</v>
       </c>
-      <c r="F53" s="88"/>
+      <c r="F53" s="83"/>
       <c r="G53" s="59"/>
       <c r="H53" s="61">
         <f t="shared" si="1"/>
@@ -2256,7 +2255,7 @@
       <c r="E55" s="47">
         <v>150</v>
       </c>
-      <c r="F55" s="88"/>
+      <c r="F55" s="83"/>
       <c r="G55" s="59"/>
       <c r="H55" s="79">
         <f t="shared" ref="H55:H58" si="2">K55/731</f>
@@ -2280,7 +2279,7 @@
       <c r="E56" s="47">
         <v>142</v>
       </c>
-      <c r="F56" s="88"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="59"/>
       <c r="H56" s="61">
         <f t="shared" si="2"/>
@@ -2304,7 +2303,7 @@
       <c r="E57" s="47">
         <v>131</v>
       </c>
-      <c r="F57" s="88"/>
+      <c r="F57" s="83"/>
       <c r="G57" s="59"/>
       <c r="H57" s="61">
         <f t="shared" si="2"/>
@@ -2328,7 +2327,7 @@
       <c r="E58" s="50">
         <v>124</v>
       </c>
-      <c r="F58" s="89"/>
+      <c r="F58" s="84"/>
       <c r="G58" s="59"/>
       <c r="H58" s="61">
         <f t="shared" si="2"/>
@@ -2363,7 +2362,7 @@
       <c r="E60" s="47">
         <v>142</v>
       </c>
-      <c r="F60" s="88"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="59"/>
       <c r="H60" s="61">
         <f t="shared" ref="H60:H63" si="3">K60/731</f>
@@ -2387,7 +2386,7 @@
       <c r="E61" s="47">
         <v>140</v>
       </c>
-      <c r="F61" s="88"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="59"/>
       <c r="H61" s="61">
         <f t="shared" si="3"/>
@@ -2411,7 +2410,7 @@
       <c r="E62" s="47">
         <v>135</v>
       </c>
-      <c r="F62" s="88"/>
+      <c r="F62" s="83"/>
       <c r="G62" s="59"/>
       <c r="H62" s="61">
         <f t="shared" si="3"/>
@@ -2435,7 +2434,7 @@
       <c r="E63" s="54">
         <v>137</v>
       </c>
-      <c r="F63" s="90"/>
+      <c r="F63" s="85"/>
       <c r="G63" s="60"/>
       <c r="H63" s="61">
         <f t="shared" si="3"/>
@@ -2475,15 +2474,15 @@
     <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="80"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="97"/>
       <c r="J75" s="80"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2500,11 +2499,11 @@
       <c r="E76" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="91" t="s">
+      <c r="F76" s="86" t="s">
         <v>48</v>
       </c>
       <c r="G76" s="70"/>
-      <c r="H76" s="91" t="s">
+      <c r="H76" s="86" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="68" t="s">
@@ -2520,24 +2519,24 @@
       <c r="B77" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="61">
+      <c r="C77" s="100">
         <v>149.41</v>
       </c>
-      <c r="D77" s="62">
+      <c r="D77" s="82">
         <v>88</v>
       </c>
-      <c r="E77" s="63">
+      <c r="E77" s="100">
         <v>150</v>
       </c>
-      <c r="F77" s="92">
+      <c r="F77" s="98">
         <v>6.04</v>
       </c>
       <c r="G77" s="64"/>
-      <c r="H77" s="93">
+      <c r="H77" s="87">
         <f>K77/731</f>
         <v>0.16552667578659372</v>
       </c>
-      <c r="I77" s="98" t="s">
+      <c r="I77" s="92" t="s">
         <v>16</v>
       </c>
       <c r="J77" s="80"/>
@@ -2550,24 +2549,24 @@
       <c r="B78" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="101">
         <v>103.57</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="83">
         <v>54</v>
       </c>
-      <c r="E78" s="47">
+      <c r="E78" s="101">
         <v>137</v>
       </c>
-      <c r="F78" s="88">
+      <c r="F78" s="83">
         <v>10.27</v>
       </c>
       <c r="G78" s="59"/>
-      <c r="H78" s="94">
+      <c r="H78" s="88">
         <f t="shared" ref="H78:H79" si="4">K78/731</f>
         <v>0.45554035567715456</v>
       </c>
-      <c r="I78" s="99" t="s">
+      <c r="I78" s="93" t="s">
         <v>39</v>
       </c>
       <c r="J78" s="80"/>
@@ -2580,24 +2579,24 @@
       <c r="B79" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="101">
         <v>102.1</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="83">
         <v>59</v>
       </c>
-      <c r="E79" s="47">
+      <c r="E79" s="101">
         <v>123</v>
       </c>
-      <c r="F79" s="88">
+      <c r="F79" s="83">
         <v>8.9600000000000009</v>
       </c>
       <c r="G79" s="59"/>
-      <c r="H79" s="94">
+      <c r="H79" s="88">
         <f t="shared" si="4"/>
         <v>0.55813953488372092</v>
       </c>
-      <c r="I79" s="99" t="s">
+      <c r="I79" s="93" t="s">
         <v>40</v>
       </c>
       <c r="J79" s="80"/>
@@ -2608,13 +2607,13 @@
     <row r="80" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="80"/>
       <c r="B80" s="40"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="49"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="102"/>
       <c r="F80" s="59"/>
       <c r="G80" s="59"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="100"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="94"/>
       <c r="J80" s="80"/>
       <c r="K80" s="48"/>
     </row>
@@ -2623,24 +2622,24 @@
       <c r="B81" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C81" s="101">
         <v>110.97</v>
       </c>
-      <c r="D81" s="43">
+      <c r="D81" s="83">
         <v>66</v>
       </c>
-      <c r="E81" s="47">
+      <c r="E81" s="101">
         <v>150</v>
       </c>
-      <c r="F81" s="88">
+      <c r="F81" s="83">
         <v>11.41</v>
       </c>
       <c r="G81" s="59"/>
-      <c r="H81" s="96">
+      <c r="H81" s="90">
         <f t="shared" ref="H81:H84" si="5">K81/731</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="I81" s="99" t="s">
+      <c r="I81" s="93" t="s">
         <v>15</v>
       </c>
       <c r="J81" s="80"/>
@@ -2653,24 +2652,24 @@
       <c r="B82" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="101">
         <v>108.79</v>
       </c>
-      <c r="D82" s="43">
+      <c r="D82" s="83">
         <v>62</v>
       </c>
-      <c r="E82" s="47">
+      <c r="E82" s="101">
         <v>142</v>
       </c>
-      <c r="F82" s="88">
+      <c r="F82" s="83">
         <v>11.55</v>
       </c>
       <c r="G82" s="59"/>
-      <c r="H82" s="94">
+      <c r="H82" s="88">
         <f t="shared" si="5"/>
         <v>5.0615595075239397E-2</v>
       </c>
-      <c r="I82" s="99" t="s">
+      <c r="I82" s="93" t="s">
         <v>40</v>
       </c>
       <c r="J82" s="80"/>
@@ -2683,24 +2682,24 @@
       <c r="B83" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="101">
         <v>96.08</v>
       </c>
-      <c r="D83" s="83">
+      <c r="D83" s="105">
         <v>49</v>
       </c>
-      <c r="E83" s="84">
+      <c r="E83" s="106">
         <v>118</v>
       </c>
-      <c r="F83" s="88">
+      <c r="F83" s="83">
         <v>8.36</v>
       </c>
       <c r="G83" s="59"/>
-      <c r="H83" s="94">
+      <c r="H83" s="88">
         <f t="shared" si="5"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="I83" s="99" t="s">
+      <c r="I83" s="93" t="s">
         <v>41</v>
       </c>
       <c r="J83" s="80"/>
@@ -2713,24 +2712,24 @@
       <c r="B84" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="77">
+      <c r="C84" s="103">
         <v>96.1</v>
       </c>
-      <c r="D84" s="43">
+      <c r="D84" s="83">
         <v>53</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="106">
         <v>118</v>
       </c>
-      <c r="F84" s="88">
+      <c r="F84" s="83">
         <v>8.0500000000000007</v>
       </c>
       <c r="G84" s="59"/>
-      <c r="H84" s="94">
+      <c r="H84" s="88">
         <f t="shared" si="5"/>
         <v>0.32010943912448703</v>
       </c>
-      <c r="I84" s="99" t="s">
+      <c r="I84" s="93" t="s">
         <v>42</v>
       </c>
       <c r="J84" s="80"/>
@@ -2741,13 +2740,13 @@
     <row r="85" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="80"/>
       <c r="B85" s="41"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="49"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="102"/>
       <c r="F85" s="59"/>
       <c r="G85" s="59"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="100"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="94"/>
       <c r="J85" s="80"/>
       <c r="K85" s="48"/>
     </row>
@@ -2756,24 +2755,24 @@
       <c r="B86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="101">
         <v>110.73</v>
       </c>
-      <c r="D86" s="43">
+      <c r="D86" s="83">
         <v>61</v>
       </c>
-      <c r="E86" s="47">
+      <c r="E86" s="101">
         <v>147</v>
       </c>
-      <c r="F86" s="88">
+      <c r="F86" s="83">
         <v>13.14</v>
       </c>
       <c r="G86" s="59"/>
-      <c r="H86" s="94">
+      <c r="H86" s="88">
         <f t="shared" ref="H86:H89" si="6">K86/731</f>
         <v>6.2927496580027359E-2</v>
       </c>
-      <c r="I86" s="99" t="s">
+      <c r="I86" s="93" t="s">
         <v>42</v>
       </c>
       <c r="J86" s="80"/>
@@ -2786,24 +2785,24 @@
       <c r="B87" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="101">
         <v>108.59</v>
       </c>
-      <c r="D87" s="43">
+      <c r="D87" s="83">
         <v>57</v>
       </c>
-      <c r="E87" s="47">
+      <c r="E87" s="101">
         <v>145</v>
       </c>
-      <c r="F87" s="88">
+      <c r="F87" s="83">
         <v>13.2</v>
       </c>
       <c r="G87" s="59"/>
-      <c r="H87" s="94">
+      <c r="H87" s="88">
         <f t="shared" si="6"/>
         <v>8.3447332421340628E-2</v>
       </c>
-      <c r="I87" s="99" t="s">
+      <c r="I87" s="93" t="s">
         <v>43</v>
       </c>
       <c r="J87" s="80"/>
@@ -2816,24 +2815,24 @@
       <c r="B88" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="101">
         <v>96.17</v>
       </c>
-      <c r="D88" s="43">
+      <c r="D88" s="83">
         <v>53</v>
       </c>
-      <c r="E88" s="47">
+      <c r="E88" s="101">
         <v>119</v>
       </c>
-      <c r="F88" s="88">
+      <c r="F88" s="105">
         <v>7.63</v>
       </c>
       <c r="G88" s="59"/>
-      <c r="H88" s="94">
+      <c r="H88" s="88">
         <f t="shared" si="6"/>
         <v>0.32831737346101231</v>
       </c>
-      <c r="I88" s="99" t="s">
+      <c r="I88" s="93" t="s">
         <v>45</v>
       </c>
       <c r="J88" s="80"/>
@@ -2846,24 +2845,24 @@
       <c r="B89" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="82">
+      <c r="C89" s="104">
         <v>95.65</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="85">
         <v>53</v>
       </c>
-      <c r="E89" s="54">
+      <c r="E89" s="107">
         <v>119</v>
       </c>
-      <c r="F89" s="90">
+      <c r="F89" s="85">
         <v>8.2100000000000009</v>
       </c>
       <c r="G89" s="60"/>
-      <c r="H89" s="97">
+      <c r="H89" s="91">
         <f t="shared" si="6"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="I89" s="101" t="s">
+      <c r="I89" s="95" t="s">
         <v>44</v>
       </c>
       <c r="J89" s="80"/>
@@ -2895,11 +2894,329 @@
       <c r="I91" s="80"/>
       <c r="J91" s="80"/>
     </row>
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="80"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="80"/>
+    </row>
+    <row r="97" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="80"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="96"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="97"/>
+      <c r="J97" s="80"/>
+    </row>
+    <row r="98" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="80"/>
+      <c r="B98" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="70"/>
+      <c r="H98" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="80"/>
+      <c r="K98" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="80"/>
+      <c r="B99" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="87">
+        <f>K99/731</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="80"/>
+      <c r="K99" s="61"/>
+    </row>
+    <row r="100" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="80"/>
+      <c r="B100" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="46"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="87">
+        <f t="shared" ref="H100:H111" si="7">K100/731</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" s="80"/>
+      <c r="K100" s="46"/>
+    </row>
+    <row r="101" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="80"/>
+      <c r="B101" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" s="80"/>
+      <c r="K101" s="46"/>
+    </row>
+    <row r="102" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="80"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="80"/>
+      <c r="K102" s="48"/>
+    </row>
+    <row r="103" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="80"/>
+      <c r="B103" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="46"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="80"/>
+      <c r="K103" s="46"/>
+    </row>
+    <row r="104" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="80"/>
+      <c r="B104" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="46"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" s="80"/>
+      <c r="K104" s="46"/>
+    </row>
+    <row r="105" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="80"/>
+      <c r="B105" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="80"/>
+      <c r="K105" s="46"/>
+    </row>
+    <row r="106" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="80"/>
+      <c r="B106" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="77"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J106" s="80"/>
+      <c r="K106" s="46"/>
+    </row>
+    <row r="107" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="80"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="80"/>
+      <c r="K107" s="48"/>
+    </row>
+    <row r="108" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="80"/>
+      <c r="B108" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="46"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="87">
+        <f t="shared" si="7"/>
+        <v>7.523939808481532E-2</v>
+      </c>
+      <c r="I108" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J108" s="80"/>
+      <c r="K108" s="46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="80"/>
+      <c r="B109" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="46"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" s="80"/>
+      <c r="K109" s="46"/>
+    </row>
+    <row r="110" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="80"/>
+      <c r="B110" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110" s="80"/>
+      <c r="K110" s="46"/>
+    </row>
+    <row r="111" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="80"/>
+      <c r="B111" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="87">
+        <f t="shared" si="7"/>
+        <v>0.41723666210670313</v>
+      </c>
+      <c r="I111" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="J111" s="80"/>
+      <c r="K111" s="52">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="80"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C49:I49"/>
     <mergeCell ref="C75:I75"/>
+    <mergeCell ref="C97:I97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC9BE-6398-4DDB-BCE5-55A1E1F04D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25A29-F1DA-4D6F-996C-6E46B1C020E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
   <si>
     <t>Algorithms</t>
   </si>
@@ -286,12 +286,15 @@
   <si>
     <t>Standard deviation</t>
   </si>
+  <si>
+    <t>After fixing calcActualDist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +376,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -430,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -984,11 +994,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1092,7 +1152,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -1121,14 +1180,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1137,6 +1189,37 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1725,15 +1808,15 @@
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
@@ -1773,7 +1856,7 @@
       <c r="E21" s="63">
         <v>150</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="64"/>
       <c r="H21" s="61">
         <f>K21/731</f>
@@ -1797,7 +1880,7 @@
       <c r="E22" s="47">
         <v>150</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="59"/>
       <c r="H22" s="61">
         <f t="shared" ref="H22:H33" si="0">K22/731</f>
@@ -1821,7 +1904,7 @@
       <c r="E23" s="47">
         <v>139</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="59"/>
       <c r="H23" s="61">
         <f t="shared" si="0"/>
@@ -1856,7 +1939,7 @@
       <c r="E25" s="47">
         <v>150</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="59"/>
       <c r="H25" s="61">
         <f t="shared" si="0"/>
@@ -1880,7 +1963,7 @@
       <c r="E26" s="47">
         <v>138</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="59"/>
       <c r="H26" s="61">
         <f t="shared" si="0"/>
@@ -1904,7 +1987,7 @@
       <c r="E27" s="47">
         <v>129</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="59"/>
       <c r="H27" s="61">
         <f t="shared" si="0"/>
@@ -1928,7 +2011,7 @@
       <c r="E28" s="50">
         <v>125</v>
       </c>
-      <c r="F28" s="84"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="59"/>
       <c r="H28" s="61">
         <f t="shared" si="0"/>
@@ -1963,7 +2046,7 @@
       <c r="E30" s="47">
         <v>145</v>
       </c>
-      <c r="F30" s="83"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="59"/>
       <c r="H30" s="61">
         <f t="shared" si="0"/>
@@ -1987,7 +2070,7 @@
       <c r="E31" s="47">
         <v>146</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="59"/>
       <c r="H31" s="61">
         <f t="shared" si="0"/>
@@ -2011,7 +2094,7 @@
       <c r="E32" s="47">
         <v>135</v>
       </c>
-      <c r="F32" s="83"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="59"/>
       <c r="H32" s="61">
         <f t="shared" si="0"/>
@@ -2035,7 +2118,7 @@
       <c r="E33" s="54">
         <v>135</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="60"/>
       <c r="H33" s="61">
         <f t="shared" si="0"/>
@@ -2124,15 +2207,15 @@
     <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
@@ -2172,7 +2255,7 @@
       <c r="E51" s="63">
         <v>150</v>
       </c>
-      <c r="F51" s="82"/>
+      <c r="F51" s="81"/>
       <c r="G51" s="64"/>
       <c r="H51" s="61">
         <f>K51/731</f>
@@ -2196,7 +2279,7 @@
       <c r="E52" s="47">
         <v>135</v>
       </c>
-      <c r="F52" s="83"/>
+      <c r="F52" s="82"/>
       <c r="G52" s="59"/>
       <c r="H52" s="61">
         <f t="shared" ref="H52:H53" si="1">K52/731</f>
@@ -2220,7 +2303,7 @@
       <c r="E53" s="47">
         <v>139</v>
       </c>
-      <c r="F53" s="83"/>
+      <c r="F53" s="82"/>
       <c r="G53" s="59"/>
       <c r="H53" s="61">
         <f t="shared" si="1"/>
@@ -2255,9 +2338,9 @@
       <c r="E55" s="47">
         <v>150</v>
       </c>
-      <c r="F55" s="83"/>
+      <c r="F55" s="82"/>
       <c r="G55" s="59"/>
-      <c r="H55" s="79">
+      <c r="H55" s="78">
         <f t="shared" ref="H55:H58" si="2">K55/731</f>
         <v>2.188782489740082E-2</v>
       </c>
@@ -2279,7 +2362,7 @@
       <c r="E56" s="47">
         <v>142</v>
       </c>
-      <c r="F56" s="83"/>
+      <c r="F56" s="82"/>
       <c r="G56" s="59"/>
       <c r="H56" s="61">
         <f t="shared" si="2"/>
@@ -2303,7 +2386,7 @@
       <c r="E57" s="47">
         <v>131</v>
       </c>
-      <c r="F57" s="83"/>
+      <c r="F57" s="82"/>
       <c r="G57" s="59"/>
       <c r="H57" s="61">
         <f t="shared" si="2"/>
@@ -2318,7 +2401,7 @@
       <c r="B58" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="78">
+      <c r="C58" s="77">
         <v>105.86</v>
       </c>
       <c r="D58" s="43">
@@ -2327,7 +2410,7 @@
       <c r="E58" s="50">
         <v>124</v>
       </c>
-      <c r="F58" s="84"/>
+      <c r="F58" s="83"/>
       <c r="G58" s="59"/>
       <c r="H58" s="61">
         <f t="shared" si="2"/>
@@ -2362,7 +2445,7 @@
       <c r="E60" s="47">
         <v>142</v>
       </c>
-      <c r="F60" s="83"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="59"/>
       <c r="H60" s="61">
         <f t="shared" ref="H60:H63" si="3">K60/731</f>
@@ -2386,7 +2469,7 @@
       <c r="E61" s="47">
         <v>140</v>
       </c>
-      <c r="F61" s="83"/>
+      <c r="F61" s="82"/>
       <c r="G61" s="59"/>
       <c r="H61" s="61">
         <f t="shared" si="3"/>
@@ -2410,7 +2493,7 @@
       <c r="E62" s="47">
         <v>135</v>
       </c>
-      <c r="F62" s="83"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="59"/>
       <c r="H62" s="61">
         <f t="shared" si="3"/>
@@ -2434,7 +2517,7 @@
       <c r="E63" s="54">
         <v>137</v>
       </c>
-      <c r="F63" s="85"/>
+      <c r="F63" s="84"/>
       <c r="G63" s="60"/>
       <c r="H63" s="61">
         <f t="shared" si="3"/>
@@ -2446,47 +2529,47 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A73" s="80"/>
-      <c r="B73" s="81" t="s">
+      <c r="A73" s="79"/>
+      <c r="B73" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
     </row>
     <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="96" t="s">
+      <c r="C75" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="80"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="79"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="67" t="s">
         <v>0</v>
       </c>
@@ -2499,429 +2582,434 @@
       <c r="E76" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="86" t="s">
+      <c r="F76" s="85" t="s">
         <v>48</v>
       </c>
       <c r="G76" s="70"/>
-      <c r="H76" s="86" t="s">
+      <c r="H76" s="85" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J76" s="80"/>
+      <c r="J76" s="79"/>
       <c r="K76" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A77" s="80"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="100">
+      <c r="C77" s="96">
         <v>149.41</v>
       </c>
-      <c r="D77" s="82">
+      <c r="D77" s="81">
         <v>88</v>
       </c>
-      <c r="E77" s="100">
+      <c r="E77" s="96">
         <v>150</v>
       </c>
-      <c r="F77" s="98">
+      <c r="F77" s="95">
         <v>6.04</v>
       </c>
       <c r="G77" s="64"/>
-      <c r="H77" s="87">
+      <c r="H77" s="86">
         <f>K77/731</f>
         <v>0.16552667578659372</v>
       </c>
-      <c r="I77" s="92" t="s">
+      <c r="I77" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="80"/>
+      <c r="J77" s="79"/>
       <c r="K77" s="61">
         <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="101">
+      <c r="C78" s="97">
         <v>103.57</v>
       </c>
-      <c r="D78" s="83">
+      <c r="D78" s="82">
         <v>54</v>
       </c>
-      <c r="E78" s="101">
+      <c r="E78" s="97">
         <v>137</v>
       </c>
-      <c r="F78" s="83">
+      <c r="F78" s="82">
         <v>10.27</v>
       </c>
       <c r="G78" s="59"/>
-      <c r="H78" s="88">
+      <c r="H78" s="87">
         <f t="shared" ref="H78:H79" si="4">K78/731</f>
         <v>0.45554035567715456</v>
       </c>
-      <c r="I78" s="93" t="s">
+      <c r="I78" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="J78" s="80"/>
+      <c r="J78" s="79"/>
       <c r="K78" s="46">
         <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="101">
+      <c r="C79" s="97">
         <v>102.1</v>
       </c>
-      <c r="D79" s="83">
+      <c r="D79" s="82">
         <v>59</v>
       </c>
-      <c r="E79" s="101">
+      <c r="E79" s="97">
         <v>123</v>
       </c>
-      <c r="F79" s="83">
+      <c r="F79" s="82">
         <v>8.9600000000000009</v>
       </c>
       <c r="G79" s="59"/>
-      <c r="H79" s="88">
+      <c r="H79" s="87">
         <f t="shared" si="4"/>
         <v>0.55813953488372092</v>
       </c>
-      <c r="I79" s="93" t="s">
+      <c r="I79" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J79" s="80"/>
+      <c r="J79" s="79"/>
       <c r="K79" s="46">
         <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="40"/>
-      <c r="C80" s="102"/>
+      <c r="C80" s="98"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="102"/>
+      <c r="E80" s="98"/>
       <c r="F80" s="59"/>
       <c r="G80" s="59"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="80"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="79"/>
       <c r="K80" s="48"/>
     </row>
     <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="101">
+      <c r="C81" s="97">
         <v>110.97</v>
       </c>
-      <c r="D81" s="83">
+      <c r="D81" s="82">
         <v>66</v>
       </c>
-      <c r="E81" s="101">
+      <c r="E81" s="97">
         <v>150</v>
       </c>
-      <c r="F81" s="83">
+      <c r="F81" s="82">
         <v>11.41</v>
       </c>
       <c r="G81" s="59"/>
-      <c r="H81" s="90">
+      <c r="H81" s="89">
         <f t="shared" ref="H81:H84" si="5">K81/731</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="I81" s="93" t="s">
+      <c r="I81" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="J81" s="80"/>
+      <c r="J81" s="79"/>
       <c r="K81" s="46">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="101">
+      <c r="C82" s="97">
         <v>108.79</v>
       </c>
-      <c r="D82" s="83">
+      <c r="D82" s="82">
         <v>62</v>
       </c>
-      <c r="E82" s="101">
+      <c r="E82" s="97">
         <v>142</v>
       </c>
-      <c r="F82" s="83">
+      <c r="F82" s="82">
         <v>11.55</v>
       </c>
       <c r="G82" s="59"/>
-      <c r="H82" s="88">
+      <c r="H82" s="87">
         <f t="shared" si="5"/>
         <v>5.0615595075239397E-2</v>
       </c>
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J82" s="80"/>
+      <c r="J82" s="79"/>
       <c r="K82" s="46">
         <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="101">
+      <c r="C83" s="97">
         <v>96.08</v>
       </c>
-      <c r="D83" s="105">
+      <c r="D83" s="101">
         <v>49</v>
       </c>
-      <c r="E83" s="106">
+      <c r="E83" s="102">
         <v>118</v>
       </c>
-      <c r="F83" s="83">
+      <c r="F83" s="82">
         <v>8.36</v>
       </c>
       <c r="G83" s="59"/>
-      <c r="H83" s="88">
+      <c r="H83" s="87">
         <f t="shared" si="5"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="I83" s="93" t="s">
+      <c r="I83" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J83" s="80"/>
+      <c r="J83" s="79"/>
       <c r="K83" s="46">
         <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="103">
+      <c r="C84" s="99">
         <v>96.1</v>
       </c>
-      <c r="D84" s="83">
+      <c r="D84" s="82">
         <v>53</v>
       </c>
-      <c r="E84" s="106">
+      <c r="E84" s="102">
         <v>118</v>
       </c>
-      <c r="F84" s="83">
+      <c r="F84" s="82">
         <v>8.0500000000000007</v>
       </c>
       <c r="G84" s="59"/>
-      <c r="H84" s="88">
+      <c r="H84" s="87">
         <f t="shared" si="5"/>
         <v>0.32010943912448703</v>
       </c>
-      <c r="I84" s="93" t="s">
+      <c r="I84" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="J84" s="80"/>
+      <c r="J84" s="79"/>
       <c r="K84" s="46">
         <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="41"/>
-      <c r="C85" s="102"/>
+      <c r="C85" s="98"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="102"/>
+      <c r="E85" s="98"/>
       <c r="F85" s="59"/>
       <c r="G85" s="59"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="80"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="79"/>
       <c r="K85" s="48"/>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="101">
+      <c r="C86" s="97">
         <v>110.73</v>
       </c>
-      <c r="D86" s="83">
+      <c r="D86" s="82">
         <v>61</v>
       </c>
-      <c r="E86" s="101">
+      <c r="E86" s="97">
         <v>147</v>
       </c>
-      <c r="F86" s="83">
+      <c r="F86" s="82">
         <v>13.14</v>
       </c>
       <c r="G86" s="59"/>
-      <c r="H86" s="88">
+      <c r="H86" s="87">
         <f t="shared" ref="H86:H89" si="6">K86/731</f>
         <v>6.2927496580027359E-2</v>
       </c>
-      <c r="I86" s="93" t="s">
+      <c r="I86" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="J86" s="80"/>
+      <c r="J86" s="79"/>
       <c r="K86" s="46">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="101">
+      <c r="C87" s="97">
         <v>108.59</v>
       </c>
-      <c r="D87" s="83">
+      <c r="D87" s="82">
         <v>57</v>
       </c>
-      <c r="E87" s="101">
+      <c r="E87" s="97">
         <v>145</v>
       </c>
-      <c r="F87" s="83">
+      <c r="F87" s="82">
         <v>13.2</v>
       </c>
       <c r="G87" s="59"/>
-      <c r="H87" s="88">
+      <c r="H87" s="87">
         <f t="shared" si="6"/>
         <v>8.3447332421340628E-2</v>
       </c>
-      <c r="I87" s="93" t="s">
+      <c r="I87" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="J87" s="80"/>
+      <c r="J87" s="79"/>
       <c r="K87" s="46">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.4">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="101">
+      <c r="C88" s="97">
         <v>96.17</v>
       </c>
-      <c r="D88" s="83">
+      <c r="D88" s="82">
         <v>53</v>
       </c>
-      <c r="E88" s="101">
+      <c r="E88" s="97">
         <v>119</v>
       </c>
-      <c r="F88" s="105">
+      <c r="F88" s="101">
         <v>7.63</v>
       </c>
       <c r="G88" s="59"/>
-      <c r="H88" s="88">
+      <c r="H88" s="87">
         <f t="shared" si="6"/>
         <v>0.32831737346101231</v>
       </c>
-      <c r="I88" s="93" t="s">
+      <c r="I88" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J88" s="80"/>
+      <c r="J88" s="79"/>
       <c r="K88" s="46">
         <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="100">
         <v>95.65</v>
       </c>
-      <c r="D89" s="85">
+      <c r="D89" s="84">
         <v>53</v>
       </c>
-      <c r="E89" s="107">
+      <c r="E89" s="103">
         <v>119</v>
       </c>
-      <c r="F89" s="85">
+      <c r="F89" s="84">
         <v>8.2100000000000009</v>
       </c>
       <c r="G89" s="60"/>
-      <c r="H89" s="91">
+      <c r="H89" s="90">
         <f t="shared" si="6"/>
         <v>0.34199726402188785</v>
       </c>
-      <c r="I89" s="95" t="s">
+      <c r="I89" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="J89" s="80"/>
+      <c r="J89" s="79"/>
       <c r="K89" s="52">
         <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="80"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="80"/>
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
+      <c r="A91" s="79"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="80"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="80"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="80"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="79"/>
     </row>
     <row r="97" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="96" t="s">
+      <c r="C97" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="96"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="96"/>
-      <c r="G97" s="96"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="97"/>
-      <c r="J97" s="80"/>
+      <c r="D97" s="104"/>
+      <c r="E97" s="104"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="79"/>
     </row>
     <row r="98" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="67" t="s">
         <v>0</v>
       </c>
@@ -2934,282 +3022,388 @@
       <c r="E98" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="86" t="s">
+      <c r="F98" s="85" t="s">
         <v>48</v>
       </c>
       <c r="G98" s="70"/>
-      <c r="H98" s="86" t="s">
+      <c r="H98" s="110" t="s">
         <v>47</v>
       </c>
       <c r="I98" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J98" s="80"/>
+      <c r="J98" s="79"/>
       <c r="K98" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="80"/>
+    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A99" s="79"/>
       <c r="B99" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="98"/>
+      <c r="C99" s="87">
+        <v>149.41</v>
+      </c>
+      <c r="D99" s="96">
+        <v>88</v>
+      </c>
+      <c r="E99" s="114">
+        <v>150</v>
+      </c>
+      <c r="F99" s="120">
+        <v>6.04</v>
+      </c>
       <c r="G99" s="64"/>
-      <c r="H99" s="87">
+      <c r="H99" s="96">
         <f>K99/731</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="92" t="s">
+        <v>0.17099863201094392</v>
+      </c>
+      <c r="I99" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="80"/>
-      <c r="K99" s="61"/>
-    </row>
-    <row r="100" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="80"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="61">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A100" s="79"/>
       <c r="B100" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="46"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="83"/>
+      <c r="C100" s="111">
+        <v>102.88</v>
+      </c>
+      <c r="D100" s="97">
+        <v>50</v>
+      </c>
+      <c r="E100" s="115">
+        <v>128</v>
+      </c>
+      <c r="F100" s="82">
+        <v>9.39</v>
+      </c>
       <c r="G100" s="59"/>
-      <c r="H100" s="87">
+      <c r="H100" s="97">
         <f t="shared" ref="H100:H111" si="7">K100/731</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="93" t="s">
+        <v>0.4637482900136799</v>
+      </c>
+      <c r="I100" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="80"/>
-      <c r="K100" s="46"/>
-    </row>
-    <row r="101" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="80"/>
+      <c r="J100" s="79"/>
+      <c r="K100" s="46">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A101" s="79"/>
       <c r="B101" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="83"/>
+      <c r="C101" s="111">
+        <v>102.37</v>
+      </c>
+      <c r="D101" s="97">
+        <v>59</v>
+      </c>
+      <c r="E101" s="115">
+        <v>124</v>
+      </c>
+      <c r="F101" s="82">
+        <v>9.23</v>
+      </c>
       <c r="G101" s="59"/>
-      <c r="H101" s="87">
+      <c r="H101" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="93" t="s">
+        <v>0.57455540355677159</v>
+      </c>
+      <c r="I101" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="J101" s="80"/>
-      <c r="K101" s="46"/>
-    </row>
-    <row r="102" spans="1:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="80"/>
+      <c r="J101" s="79"/>
+      <c r="K101" s="46">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="79"/>
       <c r="B102" s="40"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="49"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="98"/>
+      <c r="E102" s="116"/>
       <c r="F102" s="59"/>
       <c r="G102" s="59"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="94"/>
-      <c r="J102" s="80"/>
+      <c r="H102" s="98"/>
+      <c r="I102" s="108"/>
+      <c r="J102" s="79"/>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="80"/>
+    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A103" s="79"/>
       <c r="B103" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="46"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="83"/>
+      <c r="C103" s="111">
+        <v>110.36</v>
+      </c>
+      <c r="D103" s="97">
+        <v>57</v>
+      </c>
+      <c r="E103" s="115">
+        <v>150</v>
+      </c>
+      <c r="F103" s="82">
+        <v>11.59</v>
+      </c>
       <c r="G103" s="59"/>
-      <c r="H103" s="87">
+      <c r="H103" s="102">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="93" t="s">
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="I103" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J103" s="80"/>
-      <c r="K103" s="46"/>
-    </row>
-    <row r="104" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="80"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A104" s="79"/>
       <c r="B104" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="83"/>
+      <c r="C104" s="111">
+        <v>108.3</v>
+      </c>
+      <c r="D104" s="97">
+        <v>55</v>
+      </c>
+      <c r="E104" s="115">
+        <v>140</v>
+      </c>
+      <c r="F104" s="82">
+        <v>11.65</v>
+      </c>
       <c r="G104" s="59"/>
-      <c r="H104" s="87">
+      <c r="H104" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="93" t="s">
+        <v>4.9247606019151846E-2</v>
+      </c>
+      <c r="I104" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="J104" s="80"/>
-      <c r="K104" s="46"/>
-    </row>
-    <row r="105" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="80"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A105" s="79"/>
       <c r="B105" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="83"/>
+      <c r="C105" s="111">
+        <v>95.33</v>
+      </c>
+      <c r="D105" s="102">
+        <v>49</v>
+      </c>
+      <c r="E105" s="119">
+        <v>109</v>
+      </c>
+      <c r="F105" s="82">
+        <v>7.77</v>
+      </c>
       <c r="G105" s="59"/>
-      <c r="H105" s="87">
+      <c r="H105" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="93" t="s">
+        <v>0.29685362517099861</v>
+      </c>
+      <c r="I105" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="J105" s="80"/>
-      <c r="K105" s="46"/>
-    </row>
-    <row r="106" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="80"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="46">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A106" s="79"/>
       <c r="B106" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="77"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="83"/>
+      <c r="C106" s="113">
+        <v>95.94</v>
+      </c>
+      <c r="D106" s="102">
+        <v>49</v>
+      </c>
+      <c r="E106" s="115">
+        <v>115</v>
+      </c>
+      <c r="F106" s="82">
+        <v>7.91</v>
+      </c>
       <c r="G106" s="59"/>
-      <c r="H106" s="87">
+      <c r="H106" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="93" t="s">
+        <v>0.3173734610123119</v>
+      </c>
+      <c r="I106" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="J106" s="80"/>
-      <c r="K106" s="46"/>
-    </row>
-    <row r="107" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="80"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="46">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="79"/>
       <c r="B107" s="41"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="49"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="98"/>
+      <c r="E107" s="116"/>
       <c r="F107" s="59"/>
       <c r="G107" s="59"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="94"/>
-      <c r="J107" s="80"/>
+      <c r="H107" s="98"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="79"/>
       <c r="K107" s="48"/>
     </row>
-    <row r="108" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="80"/>
+    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A108" s="79"/>
       <c r="B108" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="46"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="83"/>
+      <c r="C108" s="111">
+        <v>111.16</v>
+      </c>
+      <c r="D108" s="97">
+        <v>61</v>
+      </c>
+      <c r="E108" s="115">
+        <v>147</v>
+      </c>
+      <c r="F108" s="82">
+        <v>13.36</v>
+      </c>
       <c r="G108" s="59"/>
-      <c r="H108" s="87">
+      <c r="H108" s="97">
         <f t="shared" si="7"/>
-        <v>7.523939808481532E-2</v>
-      </c>
-      <c r="I108" s="93" t="s">
+        <v>6.5663474692202461E-2</v>
+      </c>
+      <c r="I108" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="J108" s="80"/>
+      <c r="J108" s="79"/>
       <c r="K108" s="46">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="80"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A109" s="79"/>
       <c r="B109" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="83"/>
+      <c r="C109" s="111">
+        <v>108.94</v>
+      </c>
+      <c r="D109" s="97">
+        <v>56</v>
+      </c>
+      <c r="E109" s="115">
+        <v>145</v>
+      </c>
+      <c r="F109" s="82">
+        <v>13.19</v>
+      </c>
       <c r="G109" s="59"/>
-      <c r="H109" s="87">
+      <c r="H109" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="93" t="s">
+        <v>9.1655266757865936E-2</v>
+      </c>
+      <c r="I109" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="J109" s="80"/>
-      <c r="K109" s="46"/>
-    </row>
-    <row r="110" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="80"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="46">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A110" s="79"/>
       <c r="B110" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="83"/>
+      <c r="C110" s="111">
+        <v>96.13</v>
+      </c>
+      <c r="D110" s="97">
+        <v>52</v>
+      </c>
+      <c r="E110" s="115">
+        <v>114</v>
+      </c>
+      <c r="F110" s="82">
+        <v>8.0399999999999991</v>
+      </c>
       <c r="G110" s="59"/>
-      <c r="H110" s="87">
+      <c r="H110" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="93" t="s">
+        <v>0.33652530779753764</v>
+      </c>
+      <c r="I110" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="J110" s="80"/>
-      <c r="K110" s="46"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="46">
+        <v>246</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="80"/>
+      <c r="A111" s="79"/>
       <c r="B111" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="52"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="85"/>
+      <c r="C111" s="118">
+        <v>94.88</v>
+      </c>
+      <c r="D111" s="103">
+        <v>52</v>
+      </c>
+      <c r="E111" s="117">
+        <v>110</v>
+      </c>
+      <c r="F111" s="84">
+        <v>7.87</v>
+      </c>
       <c r="G111" s="60"/>
-      <c r="H111" s="87">
+      <c r="H111" s="103">
         <f t="shared" si="7"/>
-        <v>0.41723666210670313</v>
-      </c>
-      <c r="I111" s="95" t="s">
+        <v>0.35841313269493846</v>
+      </c>
+      <c r="I111" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="J111" s="80"/>
+      <c r="J111" s="79"/>
       <c r="K111" s="52">
-        <v>305</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="80"/>
-      <c r="B112" s="80"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="80"/>
-      <c r="H112" s="80"/>
-      <c r="I112" s="80"/>
-      <c r="J112" s="80"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="79"/>
+      <c r="J112" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25A29-F1DA-4D6F-996C-6E46B1C020E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4928DCC-068E-4242-AEB8-1F63A22638F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Algorithms</t>
   </si>
@@ -289,12 +289,15 @@
   <si>
     <t>After fixing calcActualDist</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +378,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1189,15 +1185,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,7 +1206,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,15 +1806,15 @@
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
@@ -2207,15 +2205,15 @@
     <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="105"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="118"/>
     </row>
     <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
@@ -2557,15 +2555,15 @@
     <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="79"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="105"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="117"/>
+      <c r="I75" s="118"/>
       <c r="J75" s="79"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2997,15 +2995,15 @@
     <row r="97" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="79"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="104" t="s">
+      <c r="C97" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="104"/>
-      <c r="E97" s="104"/>
-      <c r="F97" s="104"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="105"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+      <c r="H97" s="117"/>
+      <c r="I97" s="118"/>
       <c r="J97" s="79"/>
     </row>
     <row r="98" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3026,7 +3024,7 @@
         <v>48</v>
       </c>
       <c r="G98" s="70"/>
-      <c r="H98" s="110" t="s">
+      <c r="H98" s="107" t="s">
         <v>47</v>
       </c>
       <c r="I98" s="68" t="s">
@@ -3048,18 +3046,18 @@
       <c r="D99" s="96">
         <v>88</v>
       </c>
-      <c r="E99" s="114">
+      <c r="E99" s="111">
         <v>150</v>
       </c>
-      <c r="F99" s="120">
-        <v>6.04</v>
+      <c r="F99" s="119" t="s">
+        <v>50</v>
       </c>
       <c r="G99" s="64"/>
       <c r="H99" s="96">
         <f>K99/731</f>
         <v>0.17099863201094392</v>
       </c>
-      <c r="I99" s="106" t="s">
+      <c r="I99" s="120" t="s">
         <v>16</v>
       </c>
       <c r="J99" s="79"/>
@@ -3072,13 +3070,13 @@
       <c r="B100" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="111">
+      <c r="C100" s="108">
         <v>102.88</v>
       </c>
       <c r="D100" s="97">
         <v>50</v>
       </c>
-      <c r="E100" s="115">
+      <c r="E100" s="112">
         <v>128</v>
       </c>
       <c r="F100" s="82">
@@ -3089,7 +3087,7 @@
         <f t="shared" ref="H100:H111" si="7">K100/731</f>
         <v>0.4637482900136799</v>
       </c>
-      <c r="I100" s="107" t="s">
+      <c r="I100" s="104" t="s">
         <v>39</v>
       </c>
       <c r="J100" s="79"/>
@@ -3102,13 +3100,13 @@
       <c r="B101" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="111">
+      <c r="C101" s="108">
         <v>102.37</v>
       </c>
       <c r="D101" s="97">
         <v>59</v>
       </c>
-      <c r="E101" s="115">
+      <c r="E101" s="112">
         <v>124</v>
       </c>
       <c r="F101" s="82">
@@ -3119,7 +3117,7 @@
         <f t="shared" si="7"/>
         <v>0.57455540355677159</v>
       </c>
-      <c r="I101" s="107" t="s">
+      <c r="I101" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J101" s="79"/>
@@ -3130,13 +3128,13 @@
     <row r="102" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="79"/>
       <c r="B102" s="40"/>
-      <c r="C102" s="112"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="98"/>
-      <c r="E102" s="116"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="59"/>
       <c r="G102" s="59"/>
       <c r="H102" s="98"/>
-      <c r="I102" s="108"/>
+      <c r="I102" s="105"/>
       <c r="J102" s="79"/>
       <c r="K102" s="48"/>
     </row>
@@ -3145,13 +3143,13 @@
       <c r="B103" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="111">
+      <c r="C103" s="108">
         <v>110.36</v>
       </c>
       <c r="D103" s="97">
         <v>57</v>
       </c>
-      <c r="E103" s="115">
+      <c r="E103" s="112">
         <v>150</v>
       </c>
       <c r="F103" s="82">
@@ -3162,7 +3160,7 @@
         <f t="shared" si="7"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="I103" s="107" t="s">
+      <c r="I103" s="104" t="s">
         <v>15</v>
       </c>
       <c r="J103" s="79"/>
@@ -3175,13 +3173,13 @@
       <c r="B104" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="111">
+      <c r="C104" s="108">
         <v>108.3</v>
       </c>
       <c r="D104" s="97">
         <v>55</v>
       </c>
-      <c r="E104" s="115">
+      <c r="E104" s="112">
         <v>140</v>
       </c>
       <c r="F104" s="82">
@@ -3192,7 +3190,7 @@
         <f t="shared" si="7"/>
         <v>4.9247606019151846E-2</v>
       </c>
-      <c r="I104" s="107" t="s">
+      <c r="I104" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J104" s="79"/>
@@ -3205,16 +3203,16 @@
       <c r="B105" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="111">
+      <c r="C105" s="108">
         <v>95.33</v>
       </c>
       <c r="D105" s="102">
         <v>49</v>
       </c>
-      <c r="E105" s="119">
+      <c r="E105" s="116">
         <v>109</v>
       </c>
-      <c r="F105" s="82">
+      <c r="F105" s="101">
         <v>7.77</v>
       </c>
       <c r="G105" s="59"/>
@@ -3222,8 +3220,8 @@
         <f t="shared" si="7"/>
         <v>0.29685362517099861</v>
       </c>
-      <c r="I105" s="107" t="s">
-        <v>41</v>
+      <c r="I105" s="104" t="s">
+        <v>15</v>
       </c>
       <c r="J105" s="79"/>
       <c r="K105" s="46">
@@ -3235,13 +3233,13 @@
       <c r="B106" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="113">
+      <c r="C106" s="110">
         <v>95.94</v>
       </c>
       <c r="D106" s="102">
         <v>49</v>
       </c>
-      <c r="E106" s="115">
+      <c r="E106" s="112">
         <v>115</v>
       </c>
       <c r="F106" s="82">
@@ -3252,8 +3250,8 @@
         <f t="shared" si="7"/>
         <v>0.3173734610123119</v>
       </c>
-      <c r="I106" s="107" t="s">
-        <v>42</v>
+      <c r="I106" s="104" t="s">
+        <v>40</v>
       </c>
       <c r="J106" s="79"/>
       <c r="K106" s="46">
@@ -3263,13 +3261,13 @@
     <row r="107" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="79"/>
       <c r="B107" s="41"/>
-      <c r="C107" s="112"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="98"/>
-      <c r="E107" s="116"/>
+      <c r="E107" s="113"/>
       <c r="F107" s="59"/>
       <c r="G107" s="59"/>
       <c r="H107" s="98"/>
-      <c r="I107" s="108"/>
+      <c r="I107" s="105"/>
       <c r="J107" s="79"/>
       <c r="K107" s="48"/>
     </row>
@@ -3278,13 +3276,13 @@
       <c r="B108" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="111">
+      <c r="C108" s="108">
         <v>111.16</v>
       </c>
       <c r="D108" s="97">
         <v>61</v>
       </c>
-      <c r="E108" s="115">
+      <c r="E108" s="112">
         <v>147</v>
       </c>
       <c r="F108" s="82">
@@ -3295,8 +3293,8 @@
         <f t="shared" si="7"/>
         <v>6.5663474692202461E-2</v>
       </c>
-      <c r="I108" s="107" t="s">
-        <v>42</v>
+      <c r="I108" s="104" t="s">
+        <v>40</v>
       </c>
       <c r="J108" s="79"/>
       <c r="K108" s="46">
@@ -3308,13 +3306,13 @@
       <c r="B109" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="111">
+      <c r="C109" s="108">
         <v>108.94</v>
       </c>
       <c r="D109" s="97">
         <v>56</v>
       </c>
-      <c r="E109" s="115">
+      <c r="E109" s="112">
         <v>145</v>
       </c>
       <c r="F109" s="82">
@@ -3325,8 +3323,8 @@
         <f t="shared" si="7"/>
         <v>9.1655266757865936E-2</v>
       </c>
-      <c r="I109" s="107" t="s">
-        <v>43</v>
+      <c r="I109" s="104" t="s">
+        <v>40</v>
       </c>
       <c r="J109" s="79"/>
       <c r="K109" s="46">
@@ -3338,13 +3336,13 @@
       <c r="B110" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="111">
+      <c r="C110" s="108">
         <v>96.13</v>
       </c>
       <c r="D110" s="97">
         <v>52</v>
       </c>
-      <c r="E110" s="115">
+      <c r="E110" s="112">
         <v>114</v>
       </c>
       <c r="F110" s="82">
@@ -3355,8 +3353,8 @@
         <f t="shared" si="7"/>
         <v>0.33652530779753764</v>
       </c>
-      <c r="I110" s="107" t="s">
-        <v>45</v>
+      <c r="I110" s="104" t="s">
+        <v>40</v>
       </c>
       <c r="J110" s="79"/>
       <c r="K110" s="46">
@@ -3368,13 +3366,13 @@
       <c r="B111" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="118">
+      <c r="C111" s="115">
         <v>94.88</v>
       </c>
       <c r="D111" s="103">
         <v>52</v>
       </c>
-      <c r="E111" s="117">
+      <c r="E111" s="114">
         <v>110</v>
       </c>
       <c r="F111" s="84">
@@ -3385,8 +3383,8 @@
         <f t="shared" si="7"/>
         <v>0.35841313269493846</v>
       </c>
-      <c r="I111" s="109" t="s">
-        <v>44</v>
+      <c r="I111" s="106" t="s">
+        <v>40</v>
       </c>
       <c r="J111" s="79"/>
       <c r="K111" s="52">

--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4928DCC-068E-4242-AEB8-1F63A22638F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D4B54-6549-40DE-8BD6-D4D8F4BDF8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>Algorithms</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>after fixing checkBound()</t>
+  </si>
+  <si>
+    <t>Avg. execution time (s)</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1206,18 +1212,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="73" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,7 +1555,7 @@
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="0.7265625" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.36328125" customWidth="1"/>
     <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.08984375" bestFit="1" customWidth="1"/>
@@ -1806,15 +1815,15 @@
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
@@ -2205,15 +2214,15 @@
     <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="120"/>
     </row>
     <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
@@ -2555,15 +2564,15 @@
     <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="79"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="117" t="s">
+      <c r="C75" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="118"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="120"/>
       <c r="J75" s="79"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2995,15 +3004,15 @@
     <row r="97" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="79"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="117" t="s">
+      <c r="C97" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="117"/>
-      <c r="I97" s="118"/>
+      <c r="D97" s="119"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="119"/>
+      <c r="G97" s="119"/>
+      <c r="H97" s="119"/>
+      <c r="I97" s="120"/>
       <c r="J97" s="79"/>
     </row>
     <row r="98" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3049,7 +3058,7 @@
       <c r="E99" s="111">
         <v>150</v>
       </c>
-      <c r="F99" s="119" t="s">
+      <c r="F99" s="117" t="s">
         <v>50</v>
       </c>
       <c r="G99" s="64"/>
@@ -3057,7 +3066,7 @@
         <f>K99/731</f>
         <v>0.17099863201094392</v>
       </c>
-      <c r="I99" s="120" t="s">
+      <c r="I99" s="118" t="s">
         <v>16</v>
       </c>
       <c r="J99" s="79"/>
@@ -3403,12 +3412,441 @@
       <c r="I112" s="79"/>
       <c r="J112" s="79"/>
     </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="79"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="79"/>
+      <c r="J118" s="79"/>
+    </row>
+    <row r="119" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="79"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" s="119"/>
+      <c r="E119" s="119"/>
+      <c r="F119" s="119"/>
+      <c r="G119" s="119"/>
+      <c r="H119" s="119"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="79"/>
+    </row>
+    <row r="120" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A120" s="79"/>
+      <c r="B120" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G120" s="70"/>
+      <c r="H120" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="I120" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" s="79"/>
+      <c r="K120" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A121" s="79"/>
+      <c r="B121" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="87">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="D121" s="96">
+        <v>89</v>
+      </c>
+      <c r="E121" s="111">
+        <v>150</v>
+      </c>
+      <c r="F121" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121" s="64"/>
+      <c r="H121" s="96">
+        <f>K121/731</f>
+        <v>0.12448700410396717</v>
+      </c>
+      <c r="I121" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="79"/>
+      <c r="K121" s="61">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A122" s="79"/>
+      <c r="B122" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="108">
+        <v>95.48</v>
+      </c>
+      <c r="D122" s="97">
+        <v>45</v>
+      </c>
+      <c r="E122" s="112">
+        <v>150</v>
+      </c>
+      <c r="F122" s="82">
+        <v>10.54</v>
+      </c>
+      <c r="G122" s="59"/>
+      <c r="H122" s="97">
+        <f t="shared" ref="H122:H133" si="8">K122/731</f>
+        <v>0.28180574555403559</v>
+      </c>
+      <c r="I122" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="J122" s="79"/>
+      <c r="K122" s="46">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A123" s="79"/>
+      <c r="B123" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="108">
+        <v>94.73</v>
+      </c>
+      <c r="D123" s="97">
+        <v>48</v>
+      </c>
+      <c r="E123" s="112">
+        <v>113</v>
+      </c>
+      <c r="F123" s="82">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G123" s="59"/>
+      <c r="H123" s="97">
+        <f t="shared" si="8"/>
+        <v>0.36114911080711354</v>
+      </c>
+      <c r="I123" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" s="79"/>
+      <c r="K123" s="46">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="79"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="109"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="113"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="79"/>
+      <c r="K124" s="48"/>
+    </row>
+    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A125" s="79"/>
+      <c r="B125" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="108">
+        <v>101.93</v>
+      </c>
+      <c r="D125" s="97">
+        <v>63</v>
+      </c>
+      <c r="E125" s="112">
+        <v>150</v>
+      </c>
+      <c r="F125" s="82">
+        <v>11.56</v>
+      </c>
+      <c r="G125" s="59"/>
+      <c r="H125" s="102">
+        <f t="shared" ref="H125:H134" si="9">K125/731</f>
+        <v>2.0519835841313269E-2</v>
+      </c>
+      <c r="I125" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="79"/>
+      <c r="K125" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A126" s="79"/>
+      <c r="B126" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="108">
+        <v>99.42</v>
+      </c>
+      <c r="D126" s="97">
+        <v>53</v>
+      </c>
+      <c r="E126" s="112">
+        <v>121</v>
+      </c>
+      <c r="F126" s="82">
+        <v>10.43</v>
+      </c>
+      <c r="G126" s="59"/>
+      <c r="H126" s="97">
+        <f t="shared" si="9"/>
+        <v>4.5143638850889192E-2</v>
+      </c>
+      <c r="I126" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="79"/>
+      <c r="K126" s="46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A127" s="79"/>
+      <c r="B127" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="108">
+        <v>88.83</v>
+      </c>
+      <c r="D127" s="97">
+        <v>48</v>
+      </c>
+      <c r="E127" s="116">
+        <v>102</v>
+      </c>
+      <c r="F127" s="101">
+        <v>7.03</v>
+      </c>
+      <c r="G127" s="59"/>
+      <c r="H127" s="97">
+        <f t="shared" si="9"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="I127" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="79"/>
+      <c r="K127" s="46">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A128" s="79"/>
+      <c r="B128" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="122">
+        <v>88.9</v>
+      </c>
+      <c r="D128" s="97">
+        <v>50</v>
+      </c>
+      <c r="E128" s="112">
+        <v>104</v>
+      </c>
+      <c r="F128" s="82">
+        <v>7.09</v>
+      </c>
+      <c r="G128" s="59"/>
+      <c r="H128" s="97">
+        <f t="shared" si="9"/>
+        <v>0.17920656634746923</v>
+      </c>
+      <c r="I128" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" s="79"/>
+      <c r="K128" s="46">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="79"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="109"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="113"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="105"/>
+      <c r="J129" s="79"/>
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A130" s="79"/>
+      <c r="B130" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="108">
+        <v>103.81</v>
+      </c>
+      <c r="D130" s="97">
+        <v>54</v>
+      </c>
+      <c r="E130" s="112">
+        <v>137</v>
+      </c>
+      <c r="F130" s="82">
+        <v>11.68</v>
+      </c>
+      <c r="G130" s="59"/>
+      <c r="H130" s="97">
+        <f t="shared" ref="H130:H134" si="10">K130/731</f>
+        <v>5.1983584131326949E-2</v>
+      </c>
+      <c r="I130" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" s="79"/>
+      <c r="K130" s="46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A131" s="79"/>
+      <c r="B131" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="108">
+        <v>101.54</v>
+      </c>
+      <c r="D131" s="97">
+        <v>52</v>
+      </c>
+      <c r="E131" s="112">
+        <v>133</v>
+      </c>
+      <c r="F131" s="82">
+        <v>11.8</v>
+      </c>
+      <c r="G131" s="59"/>
+      <c r="H131" s="97">
+        <f t="shared" si="10"/>
+        <v>6.429548563611491E-2</v>
+      </c>
+      <c r="I131" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="79"/>
+      <c r="K131" s="46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A132" s="79"/>
+      <c r="B132" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="123">
+        <v>88.75</v>
+      </c>
+      <c r="D132" s="102">
+        <v>47</v>
+      </c>
+      <c r="E132" s="112">
+        <v>107</v>
+      </c>
+      <c r="F132" s="82">
+        <v>7.54</v>
+      </c>
+      <c r="G132" s="59"/>
+      <c r="H132" s="97">
+        <f t="shared" si="10"/>
+        <v>0.20793433652530779</v>
+      </c>
+      <c r="I132" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="79"/>
+      <c r="K132" s="46">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="79"/>
+      <c r="B133" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="121">
+        <v>89</v>
+      </c>
+      <c r="D133" s="100">
+        <v>47</v>
+      </c>
+      <c r="E133" s="114">
+        <v>107</v>
+      </c>
+      <c r="F133" s="84">
+        <v>7.09</v>
+      </c>
+      <c r="G133" s="60"/>
+      <c r="H133" s="103">
+        <f t="shared" si="10"/>
+        <v>0.213406292749658</v>
+      </c>
+      <c r="I133" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" s="79"/>
+      <c r="K133" s="52">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="79"/>
+      <c r="B134" s="79"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79"/>
+      <c r="I134" s="79"/>
+      <c r="J134" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C49:I49"/>
     <mergeCell ref="C75:I75"/>
     <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C119:I119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ilp-cwk2-analysis.xlsx
+++ b/ilp-cwk2-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwixl\OneDrive\Documents\3rd Year (2020-2021)\ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D4B54-6549-40DE-8BD6-D4D8F4BDF8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2728D08-160D-428A-9F77-243B2B0A4E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE64A52A-55F2-420D-95CB-35601E401AC9}"/>
   </bookViews>
@@ -1218,15 +1218,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB9C46-FDB3-4290-B53D-40B8FAA4256E}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1815,15 +1815,15 @@
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="66"/>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="67" t="s">
@@ -2214,15 +2214,15 @@
     <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="66"/>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="120"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="123"/>
     </row>
     <row r="50" spans="2:11" ht="56" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="67" t="s">
@@ -2564,15 +2564,15 @@
     <row r="75" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="79"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="119" t="s">
+      <c r="C75" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="120"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="123"/>
       <c r="J75" s="79"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3004,15 +3004,15 @@
     <row r="97" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="79"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="119" t="s">
+      <c r="C97" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="119"/>
-      <c r="E97" s="119"/>
-      <c r="F97" s="119"/>
-      <c r="G97" s="119"/>
-      <c r="H97" s="119"/>
-      <c r="I97" s="120"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="122"/>
+      <c r="I97" s="123"/>
       <c r="J97" s="79"/>
     </row>
     <row r="98" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3412,12 +3412,12 @@
       <c r="I112" s="79"/>
       <c r="J112" s="79"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="79"/>
       <c r="B118" s="79"/>
       <c r="C118" s="79"/>
@@ -3429,21 +3429,21 @@
       <c r="I118" s="79"/>
       <c r="J118" s="79"/>
     </row>
-    <row r="119" spans="1:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="79"/>
       <c r="B119" s="66"/>
-      <c r="C119" s="119" t="s">
+      <c r="C119" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D119" s="119"/>
-      <c r="E119" s="119"/>
-      <c r="F119" s="119"/>
-      <c r="G119" s="119"/>
-      <c r="H119" s="119"/>
-      <c r="I119" s="120"/>
+      <c r="D119" s="122"/>
+      <c r="E119" s="122"/>
+      <c r="F119" s="122"/>
+      <c r="G119" s="122"/>
+      <c r="H119" s="122"/>
+      <c r="I119" s="123"/>
       <c r="J119" s="79"/>
     </row>
-    <row r="120" spans="1:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="79"/>
       <c r="B120" s="67" t="s">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A121" s="79"/>
       <c r="B121" s="37" t="s">
         <v>3</v>
@@ -3492,17 +3492,17 @@
       <c r="G121" s="64"/>
       <c r="H121" s="96">
         <f>K121/731</f>
-        <v>0.12448700410396717</v>
+        <v>0.10807113543091655</v>
       </c>
       <c r="I121" s="118" t="s">
         <v>16</v>
       </c>
       <c r="J121" s="79"/>
       <c r="K121" s="61">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A122" s="79"/>
       <c r="B122" s="38" t="s">
         <v>2</v>
@@ -3521,18 +3521,21 @@
       </c>
       <c r="G122" s="59"/>
       <c r="H122" s="97">
-        <f t="shared" ref="H122:H133" si="8">K122/731</f>
-        <v>0.28180574555403559</v>
+        <f t="shared" ref="H122:H123" si="8">K122/731</f>
+        <v>0.23666210670314639</v>
       </c>
       <c r="I122" s="104" t="s">
         <v>39</v>
       </c>
       <c r="J122" s="79"/>
       <c r="K122" s="46">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="L122">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A123" s="79"/>
       <c r="B123" s="39" t="s">
         <v>9</v>
@@ -3552,17 +3555,20 @@
       <c r="G123" s="59"/>
       <c r="H123" s="97">
         <f t="shared" si="8"/>
-        <v>0.36114911080711354</v>
+        <v>0.29001367989056087</v>
       </c>
       <c r="I123" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J123" s="79"/>
       <c r="K123" s="46">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+      <c r="L123">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="79"/>
       <c r="B124" s="40"/>
       <c r="C124" s="109"/>
@@ -3575,7 +3581,7 @@
       <c r="J124" s="79"/>
       <c r="K124" s="48"/>
     </row>
-    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A125" s="79"/>
       <c r="B125" s="38" t="s">
         <v>1</v>
@@ -3594,18 +3600,21 @@
       </c>
       <c r="G125" s="59"/>
       <c r="H125" s="102">
-        <f t="shared" ref="H125:H134" si="9">K125/731</f>
-        <v>2.0519835841313269E-2</v>
+        <f t="shared" ref="H125:H128" si="9">K125/731</f>
+        <v>1.7783857729138167E-2</v>
       </c>
       <c r="I125" s="104" t="s">
         <v>15</v>
       </c>
       <c r="J125" s="79"/>
       <c r="K125" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="L125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A126" s="79"/>
       <c r="B126" s="39" t="s">
         <v>6</v>
@@ -3625,17 +3634,20 @@
       <c r="G126" s="59"/>
       <c r="H126" s="97">
         <f t="shared" si="9"/>
-        <v>4.5143638850889192E-2</v>
+        <v>2.8727770177838577E-2</v>
       </c>
       <c r="I126" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J126" s="79"/>
       <c r="K126" s="46">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="L126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A127" s="79"/>
       <c r="B127" s="39" t="s">
         <v>7</v>
@@ -3655,22 +3667,25 @@
       <c r="G127" s="59"/>
       <c r="H127" s="97">
         <f t="shared" si="9"/>
-        <v>0.17647058823529413</v>
+        <v>0.1491108071135431</v>
       </c>
       <c r="I127" s="104" t="s">
         <v>15</v>
       </c>
       <c r="J127" s="79"/>
       <c r="K127" s="46">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="L127">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A128" s="79"/>
       <c r="B128" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="122">
+      <c r="C128" s="120">
         <v>88.9</v>
       </c>
       <c r="D128" s="97">
@@ -3685,17 +3700,20 @@
       <c r="G128" s="59"/>
       <c r="H128" s="97">
         <f t="shared" si="9"/>
-        <v>0.17920656634746923</v>
+        <v>0.15184678522571821</v>
       </c>
       <c r="I128" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J128" s="79"/>
       <c r="K128" s="46">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="L128">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="79"/>
       <c r="B129" s="41"/>
       <c r="C129" s="109"/>
@@ -3708,7 +3726,7 @@
       <c r="J129" s="79"/>
       <c r="K129" s="48"/>
     </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A130" s="79"/>
       <c r="B130" s="38" t="s">
         <v>22</v>
@@ -3727,18 +3745,21 @@
       </c>
       <c r="G130" s="59"/>
       <c r="H130" s="97">
-        <f t="shared" ref="H130:H134" si="10">K130/731</f>
-        <v>5.1983584131326949E-2</v>
+        <f t="shared" ref="H130:H133" si="10">K130/731</f>
+        <v>4.3775649794801641E-2</v>
       </c>
       <c r="I130" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J130" s="79"/>
       <c r="K130" s="46">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="L130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A131" s="79"/>
       <c r="B131" s="39" t="s">
         <v>23</v>
@@ -3758,22 +3779,25 @@
       <c r="G131" s="59"/>
       <c r="H131" s="97">
         <f t="shared" si="10"/>
-        <v>6.429548563611491E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I131" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J131" s="79"/>
       <c r="K131" s="46">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="L131">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.4">
       <c r="A132" s="79"/>
       <c r="B132" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="123">
+      <c r="C132" s="121">
         <v>88.75</v>
       </c>
       <c r="D132" s="102">
@@ -3788,22 +3812,25 @@
       <c r="G132" s="59"/>
       <c r="H132" s="97">
         <f t="shared" si="10"/>
-        <v>0.20793433652530779</v>
+        <v>0.17373461012311903</v>
       </c>
       <c r="I132" s="104" t="s">
         <v>40</v>
       </c>
       <c r="J132" s="79"/>
       <c r="K132" s="46">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="L132">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="79"/>
       <c r="B133" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="121">
+      <c r="C133" s="119">
         <v>89</v>
       </c>
       <c r="D133" s="100">
@@ -3818,17 +3845,20 @@
       <c r="G133" s="60"/>
       <c r="H133" s="103">
         <f t="shared" si="10"/>
-        <v>0.213406292749658</v>
+        <v>0.17783857729138167</v>
       </c>
       <c r="I133" s="106" t="s">
         <v>40</v>
       </c>
       <c r="J133" s="79"/>
       <c r="K133" s="52">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="L133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="79"/>
       <c r="B134" s="79"/>
       <c r="C134" s="79"/>
